--- a/192925_Summary ABO ABI 2018.xlsx
+++ b/192925_Summary ABO ABI 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9290" tabRatio="880" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9290" tabRatio="880" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="32" r:id="rId1"/>
@@ -1683,20 +1683,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="19" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1705,6 +1702,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2408,25 +2408,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="100"/>
-        <c:axId val="57873920"/>
-        <c:axId val="57875456"/>
+        <c:axId val="123643008"/>
+        <c:axId val="123644544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57873920"/>
+        <c:axId val="123643008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57875456"/>
+        <c:crossAx val="123644544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57875456"/>
+        <c:axId val="123644544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700000"/>
@@ -2436,7 +2436,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57873920"/>
+        <c:crossAx val="123643008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2474,7 +2474,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2508,8 +2508,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0229076657657161E-3"/>
-          <c:y val="3.2407407407407468E-2"/>
+          <c:x val="8.0229076657657231E-3"/>
+          <c:y val="3.2407407407407496E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2617,7 +2617,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3263,11 +3263,11 @@
         </c:ser>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="59083008"/>
-        <c:axId val="59092992"/>
+        <c:axId val="123676544"/>
+        <c:axId val="123678080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59083008"/>
+        <c:axId val="123676544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,14 +3275,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59092992"/>
+        <c:crossAx val="123678080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59092992"/>
+        <c:axId val="123678080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,7 +3290,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59083008"/>
+        <c:crossAx val="123676544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -3314,7 +3314,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3427,8 +3427,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74107064741907469"/>
-          <c:y val="0.37442403032954313"/>
+          <c:x val="0.74107064741907536"/>
+          <c:y val="0.37442403032954352"/>
           <c:w val="0.15020176697500454"/>
           <c:h val="0.25115157480314959"/>
         </c:manualLayout>
@@ -3444,7 +3444,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3553,9 +3553,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74107064741907469"/>
+          <c:x val="0.74107064741907536"/>
           <c:y val="0.36979440069991248"/>
-          <c:w val="0.15554231079345837"/>
+          <c:w val="0.15554231079345848"/>
           <c:h val="0.25115157480314959"/>
         </c:manualLayout>
       </c:layout>
@@ -3570,7 +3570,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3600,7 +3600,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68919148328749491"/>
+          <c:x val="0.68919148328749524"/>
           <c:y val="6.9444444444444503E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3699,7 +3699,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3729,7 +3729,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68919148328749491"/>
+          <c:x val="0.68919148328749524"/>
           <c:y val="6.9444444444444503E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3828,7 +3828,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4342,7 +4342,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4549,7 +4549,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -5753,7 +5753,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -6957,7 +6957,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F57"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8180,7 +8180,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9392,7 +9392,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F57"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10616,7 +10616,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11827,7 +11827,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F57"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13051,7 +13051,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F57"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -14275,7 +14275,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F57"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15499,7 +15499,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F57"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17656,7 +17656,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F59"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18921,7 +18921,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F57"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20163,7 +20163,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21393,7 +21393,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -22622,7 +22622,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23851,7 +23851,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F57"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25093,7 +25093,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F52"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -26276,7 +26276,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F51"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -27444,7 +27444,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F51"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -29830,7 +29830,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -37951,11 +37951,11 @@
   </sheetPr>
   <dimension ref="B1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -37986,87 +37986,87 @@
   <sheetData>
     <row r="1" spans="2:22" ht="13" thickBot="1"/>
     <row r="2" spans="2:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="117" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="121" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="117" t="s">
         <v>246</v>
       </c>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="121" t="s">
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="O2" s="121" t="s">
+      <c r="O2" s="118" t="s">
         <v>249</v>
       </c>
-      <c r="P2" s="118" t="s">
+      <c r="P2" s="117" t="s">
         <v>259</v>
       </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
     </row>
     <row r="3" spans="2:22" ht="13" thickBot="1">
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118" t="s">
         <v>250</v>
       </c>
-      <c r="Q3" s="121" t="s">
+      <c r="Q3" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="R3" s="118" t="s">
+      <c r="R3" s="117" t="s">
         <v>252</v>
       </c>
-      <c r="S3" s="121" t="s">
+      <c r="S3" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="T3" s="121" t="s">
+      <c r="T3" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="U3" s="118" t="s">
+      <c r="U3" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="V3" s="122" t="s">
+      <c r="V3" s="121" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B4" s="118"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="118"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="90" t="s">
         <v>242</v>
       </c>
@@ -38079,7 +38079,7 @@
       <c r="H4" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="121"/>
+      <c r="I4" s="118"/>
       <c r="J4" s="100" t="s">
         <v>242</v>
       </c>
@@ -38092,18 +38092,18 @@
       <c r="M4" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="123"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="122"/>
     </row>
     <row r="5" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B5" s="117">
+      <c r="B5" s="119">
         <v>1</v>
       </c>
       <c r="C5" s="75" t="s">
@@ -38135,10 +38135,10 @@
       <c r="M5" s="95">
         <v>4590000000</v>
       </c>
-      <c r="N5" s="119">
-        <v>0</v>
-      </c>
-      <c r="O5" s="117"/>
+      <c r="N5" s="124">
+        <v>0</v>
+      </c>
+      <c r="O5" s="119"/>
       <c r="P5" s="73"/>
       <c r="Q5" s="73"/>
       <c r="R5" s="73"/>
@@ -38148,7 +38148,7 @@
       <c r="V5" s="86"/>
     </row>
     <row r="6" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B6" s="117"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="79" t="s">
         <v>124</v>
       </c>
@@ -38172,8 +38172,8 @@
       <c r="K6" s="94"/>
       <c r="L6" s="88"/>
       <c r="M6" s="97"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="117"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="119"/>
       <c r="P6" s="73"/>
       <c r="Q6" s="73"/>
       <c r="R6" s="73"/>
@@ -38183,7 +38183,7 @@
       <c r="V6" s="88"/>
     </row>
     <row r="7" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B7" s="117">
+      <c r="B7" s="119">
         <v>2</v>
       </c>
       <c r="C7" s="80" t="s">
@@ -38213,10 +38213,10 @@
       <c r="M7" s="95">
         <v>0</v>
       </c>
-      <c r="N7" s="119" t="s">
+      <c r="N7" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O7" s="117"/>
+      <c r="O7" s="119"/>
       <c r="P7" s="73"/>
       <c r="Q7" s="73"/>
       <c r="R7" s="73"/>
@@ -38226,7 +38226,7 @@
       <c r="V7" s="86"/>
     </row>
     <row r="8" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B8" s="117"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="78" t="s">
         <v>125</v>
       </c>
@@ -38250,8 +38250,8 @@
       <c r="K8" s="94"/>
       <c r="L8" s="88"/>
       <c r="M8" s="97"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="117"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="119"/>
       <c r="P8" s="73"/>
       <c r="Q8" s="73"/>
       <c r="R8" s="73"/>
@@ -38261,7 +38261,7 @@
       <c r="V8" s="88"/>
     </row>
     <row r="9" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B9" s="117">
+      <c r="B9" s="119">
         <v>3</v>
       </c>
       <c r="C9" s="81" t="s">
@@ -38291,10 +38291,10 @@
       <c r="M9" s="95">
         <v>0</v>
       </c>
-      <c r="N9" s="119" t="s">
+      <c r="N9" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O9" s="117"/>
+      <c r="O9" s="119"/>
       <c r="P9" s="73"/>
       <c r="Q9" s="73"/>
       <c r="R9" s="73"/>
@@ -38304,7 +38304,7 @@
       <c r="V9" s="86"/>
     </row>
     <row r="10" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="82" t="s">
         <v>126</v>
       </c>
@@ -38328,8 +38328,8 @@
       <c r="K10" s="94"/>
       <c r="L10" s="88"/>
       <c r="M10" s="97"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="117"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="119"/>
       <c r="P10" s="73"/>
       <c r="Q10" s="73"/>
       <c r="R10" s="73"/>
@@ -38339,7 +38339,7 @@
       <c r="V10" s="88"/>
     </row>
     <row r="11" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B11" s="117">
+      <c r="B11" s="119">
         <v>4</v>
       </c>
       <c r="C11" s="80" t="s">
@@ -38369,10 +38369,10 @@
       <c r="M11" s="95">
         <v>0</v>
       </c>
-      <c r="N11" s="119" t="s">
+      <c r="N11" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O11" s="117"/>
+      <c r="O11" s="119"/>
       <c r="P11" s="73"/>
       <c r="Q11" s="73"/>
       <c r="R11" s="73"/>
@@ -38382,7 +38382,7 @@
       <c r="V11" s="86"/>
     </row>
     <row r="12" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="78" t="s">
         <v>134</v>
       </c>
@@ -38406,8 +38406,8 @@
       <c r="K12" s="94"/>
       <c r="L12" s="88"/>
       <c r="M12" s="97"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="117"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="119"/>
       <c r="P12" s="73"/>
       <c r="Q12" s="73"/>
       <c r="R12" s="73"/>
@@ -38417,7 +38417,7 @@
       <c r="V12" s="88"/>
     </row>
     <row r="13" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B13" s="117">
+      <c r="B13" s="119">
         <v>5</v>
       </c>
       <c r="C13" s="75" t="s">
@@ -38447,10 +38447,10 @@
       <c r="M13" s="95">
         <v>0</v>
       </c>
-      <c r="N13" s="119" t="s">
+      <c r="N13" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O13" s="117"/>
+      <c r="O13" s="119"/>
       <c r="P13" s="73"/>
       <c r="Q13" s="73"/>
       <c r="R13" s="73"/>
@@ -38460,7 +38460,7 @@
       <c r="V13" s="86"/>
     </row>
     <row r="14" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="79" t="s">
         <v>133</v>
       </c>
@@ -38484,8 +38484,8 @@
       <c r="K14" s="93"/>
       <c r="L14" s="87"/>
       <c r="M14" s="96"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="117"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="119"/>
       <c r="P14" s="73"/>
       <c r="Q14" s="73"/>
       <c r="R14" s="73"/>
@@ -38495,7 +38495,7 @@
       <c r="V14" s="88"/>
     </row>
     <row r="15" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B15" s="117">
+      <c r="B15" s="119">
         <v>6</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -38527,10 +38527,10 @@
       <c r="M15" s="95">
         <v>-2600563933.1100001</v>
       </c>
-      <c r="N15" s="119" t="s">
+      <c r="N15" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="119">
         <v>115</v>
       </c>
       <c r="P15" s="73"/>
@@ -38544,7 +38544,7 @@
       </c>
     </row>
     <row r="16" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="76" t="s">
         <v>127</v>
       </c>
@@ -38570,8 +38570,8 @@
       <c r="K16" s="94"/>
       <c r="L16" s="88"/>
       <c r="M16" s="97"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="117"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="119"/>
       <c r="P16" s="73"/>
       <c r="Q16" s="73"/>
       <c r="R16" s="73"/>
@@ -38581,7 +38581,7 @@
       <c r="V16" s="88"/>
     </row>
     <row r="17" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B17" s="117">
+      <c r="B17" s="119">
         <v>7</v>
       </c>
       <c r="C17" s="81" t="s">
@@ -38615,10 +38615,10 @@
       <c r="M17" s="95">
         <v>40329102.109999657</v>
       </c>
-      <c r="N17" s="119">
-        <v>0</v>
-      </c>
-      <c r="O17" s="117"/>
+      <c r="N17" s="124">
+        <v>0</v>
+      </c>
+      <c r="O17" s="119"/>
       <c r="P17" s="73"/>
       <c r="Q17" s="73"/>
       <c r="R17" s="73"/>
@@ -38628,7 +38628,7 @@
       <c r="V17" s="86"/>
     </row>
     <row r="18" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B18" s="117"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="82" t="s">
         <v>128</v>
       </c>
@@ -38654,8 +38654,8 @@
       </c>
       <c r="L18" s="88"/>
       <c r="M18" s="97"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="117"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="73"/>
       <c r="Q18" s="73"/>
       <c r="R18" s="73"/>
@@ -38665,7 +38665,7 @@
       <c r="V18" s="88"/>
     </row>
     <row r="19" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B19" s="117">
+      <c r="B19" s="119">
         <v>8</v>
       </c>
       <c r="C19" s="81" t="s">
@@ -38699,10 +38699,10 @@
       <c r="M19" s="95">
         <v>5588665672.8800001</v>
       </c>
-      <c r="N19" s="119">
+      <c r="N19" s="124">
         <v>0.24477490907027027</v>
       </c>
-      <c r="O19" s="117"/>
+      <c r="O19" s="119"/>
       <c r="P19" s="73"/>
       <c r="Q19" s="73"/>
       <c r="R19" s="73"/>
@@ -38712,7 +38712,7 @@
       <c r="V19" s="86"/>
     </row>
     <row r="20" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B20" s="117"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="82" t="s">
         <v>129</v>
       </c>
@@ -38738,8 +38738,8 @@
       <c r="K20" s="94"/>
       <c r="L20" s="88"/>
       <c r="M20" s="97"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="117"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="119"/>
       <c r="P20" s="73"/>
       <c r="Q20" s="73"/>
       <c r="R20" s="73"/>
@@ -38749,7 +38749,7 @@
       <c r="V20" s="88"/>
     </row>
     <row r="21" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B21" s="117">
+      <c r="B21" s="119">
         <v>9</v>
       </c>
       <c r="C21" s="75" t="s">
@@ -38785,10 +38785,10 @@
       <c r="M21" s="95">
         <v>-416969816.34999967</v>
       </c>
-      <c r="N21" s="119">
+      <c r="N21" s="124">
         <v>0.99415390611891885</v>
       </c>
-      <c r="O21" s="117">
+      <c r="O21" s="119">
         <v>29</v>
       </c>
       <c r="P21" s="73"/>
@@ -38802,7 +38802,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B22" s="117"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="79" t="s">
         <v>130</v>
       </c>
@@ -38830,8 +38830,8 @@
       </c>
       <c r="L22" s="88"/>
       <c r="M22" s="97"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="117"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="119"/>
       <c r="P22" s="73"/>
       <c r="Q22" s="73"/>
       <c r="R22" s="73"/>
@@ -38841,7 +38841,7 @@
       <c r="V22" s="87"/>
     </row>
     <row r="23" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B23" s="117">
+      <c r="B23" s="119">
         <v>10</v>
       </c>
       <c r="C23" s="83" t="s">
@@ -38877,10 +38877,10 @@
       <c r="M23" s="95">
         <v>122364542</v>
       </c>
-      <c r="N23" s="119">
+      <c r="N23" s="124">
         <v>0.41046036721216217</v>
       </c>
-      <c r="O23" s="117"/>
+      <c r="O23" s="119"/>
       <c r="P23" s="73"/>
       <c r="Q23" s="73"/>
       <c r="R23" s="73"/>
@@ -38890,7 +38890,7 @@
       <c r="V23" s="86"/>
     </row>
     <row r="24" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="84" t="s">
         <v>131</v>
       </c>
@@ -38918,8 +38918,8 @@
       </c>
       <c r="L24" s="88"/>
       <c r="M24" s="97"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="117"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="119"/>
       <c r="P24" s="73"/>
       <c r="Q24" s="73"/>
       <c r="R24" s="73"/>
@@ -38929,7 +38929,7 @@
       <c r="V24" s="88"/>
     </row>
     <row r="25" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B25" s="117">
+      <c r="B25" s="119">
         <v>11</v>
       </c>
       <c r="C25" s="83" t="s">
@@ -38959,10 +38959,10 @@
       <c r="M25" s="95">
         <v>0</v>
       </c>
-      <c r="N25" s="119" t="s">
+      <c r="N25" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O25" s="117"/>
+      <c r="O25" s="119"/>
       <c r="P25" s="73"/>
       <c r="Q25" s="73"/>
       <c r="R25" s="73"/>
@@ -38972,7 +38972,7 @@
       <c r="V25" s="86"/>
     </row>
     <row r="26" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B26" s="117"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="84" t="s">
         <v>132</v>
       </c>
@@ -38996,8 +38996,8 @@
       <c r="K26" s="94"/>
       <c r="L26" s="88"/>
       <c r="M26" s="97"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="117"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="119"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
       <c r="R26" s="73"/>
@@ -39007,7 +39007,7 @@
       <c r="V26" s="88"/>
     </row>
     <row r="27" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B27" s="117">
+      <c r="B27" s="119">
         <v>12</v>
       </c>
       <c r="C27" s="75" t="s">
@@ -39037,10 +39037,10 @@
       <c r="M27" s="95">
         <v>0</v>
       </c>
-      <c r="N27" s="119" t="s">
+      <c r="N27" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O27" s="117"/>
+      <c r="O27" s="119"/>
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
       <c r="R27" s="73"/>
@@ -39050,7 +39050,7 @@
       <c r="V27" s="86"/>
     </row>
     <row r="28" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B28" s="117"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="79" t="s">
         <v>136</v>
       </c>
@@ -39074,8 +39074,8 @@
       <c r="K28" s="93"/>
       <c r="L28" s="87"/>
       <c r="M28" s="96"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="117"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="119"/>
       <c r="P28" s="73"/>
       <c r="Q28" s="73"/>
       <c r="R28" s="73"/>
@@ -39085,7 +39085,7 @@
       <c r="V28" s="88"/>
     </row>
     <row r="29" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B29" s="117">
+      <c r="B29" s="119">
         <v>13</v>
       </c>
       <c r="C29" s="80" t="s">
@@ -39119,10 +39119,10 @@
       <c r="M29" s="95">
         <v>-1259223078.54</v>
       </c>
-      <c r="N29" s="119" t="s">
+      <c r="N29" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O29" s="117"/>
+      <c r="O29" s="119"/>
       <c r="P29" s="73"/>
       <c r="Q29" s="73"/>
       <c r="R29" s="73"/>
@@ -39132,7 +39132,7 @@
       <c r="V29" s="86"/>
     </row>
     <row r="30" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B30" s="117"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="78" t="s">
         <v>137</v>
       </c>
@@ -39160,8 +39160,8 @@
       </c>
       <c r="L30" s="88"/>
       <c r="M30" s="97"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="117"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="119"/>
       <c r="P30" s="73"/>
       <c r="Q30" s="73"/>
       <c r="R30" s="73"/>
@@ -39171,7 +39171,7 @@
       <c r="V30" s="88"/>
     </row>
     <row r="31" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B31" s="117">
+      <c r="B31" s="119">
         <v>14</v>
       </c>
       <c r="C31" s="81" t="s">
@@ -39205,10 +39205,10 @@
       <c r="M31" s="95">
         <v>447357967.46000004</v>
       </c>
-      <c r="N31" s="119">
+      <c r="N31" s="124">
         <v>0.91052840650800004</v>
       </c>
-      <c r="O31" s="117">
+      <c r="O31" s="119">
         <v>25</v>
       </c>
       <c r="P31" s="73"/>
@@ -39222,7 +39222,7 @@
       </c>
     </row>
     <row r="32" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B32" s="117"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="82" t="s">
         <v>138</v>
       </c>
@@ -39248,8 +39248,8 @@
       <c r="K32" s="94"/>
       <c r="L32" s="88"/>
       <c r="M32" s="97"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="117"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="119"/>
       <c r="P32" s="73"/>
       <c r="Q32" s="73"/>
       <c r="R32" s="73"/>
@@ -39259,7 +39259,7 @@
       <c r="V32" s="88"/>
     </row>
     <row r="33" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B33" s="117">
+      <c r="B33" s="119">
         <v>15</v>
       </c>
       <c r="C33" s="75" t="s">
@@ -39289,10 +39289,10 @@
       <c r="M33" s="95">
         <v>0</v>
       </c>
-      <c r="N33" s="119" t="s">
+      <c r="N33" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O33" s="117"/>
+      <c r="O33" s="119"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="73"/>
       <c r="R33" s="73"/>
@@ -39302,7 +39302,7 @@
       <c r="V33" s="86"/>
     </row>
     <row r="34" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B34" s="117"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="79" t="s">
         <v>139</v>
       </c>
@@ -39326,8 +39326,8 @@
       <c r="K34" s="94"/>
       <c r="L34" s="88"/>
       <c r="M34" s="97"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="117"/>
+      <c r="N34" s="124"/>
+      <c r="O34" s="119"/>
       <c r="P34" s="73"/>
       <c r="Q34" s="73"/>
       <c r="R34" s="73"/>
@@ -39337,7 +39337,7 @@
       <c r="V34" s="88"/>
     </row>
     <row r="35" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B35" s="117">
+      <c r="B35" s="119">
         <v>16</v>
       </c>
       <c r="C35" s="83" t="s">
@@ -39369,10 +39369,10 @@
       <c r="M35" s="95">
         <v>5000000000</v>
       </c>
-      <c r="N35" s="119">
-        <v>0</v>
-      </c>
-      <c r="O35" s="117"/>
+      <c r="N35" s="124">
+        <v>0</v>
+      </c>
+      <c r="O35" s="119"/>
       <c r="P35" s="73"/>
       <c r="Q35" s="73"/>
       <c r="R35" s="73"/>
@@ -39382,7 +39382,7 @@
       <c r="V35" s="86"/>
     </row>
     <row r="36" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B36" s="117"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="84" t="s">
         <v>140</v>
       </c>
@@ -39406,8 +39406,8 @@
       <c r="K36" s="94"/>
       <c r="L36" s="88"/>
       <c r="M36" s="97"/>
-      <c r="N36" s="119"/>
-      <c r="O36" s="117"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="119"/>
       <c r="P36" s="73"/>
       <c r="Q36" s="73"/>
       <c r="R36" s="73"/>
@@ -39417,7 +39417,7 @@
       <c r="V36" s="88"/>
     </row>
     <row r="37" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B37" s="117">
+      <c r="B37" s="119">
         <v>17</v>
       </c>
       <c r="C37" s="80" t="s">
@@ -39451,10 +39451,10 @@
       <c r="M37" s="95">
         <v>4941621759.1000004</v>
       </c>
-      <c r="N37" s="119">
-        <v>0</v>
-      </c>
-      <c r="O37" s="117"/>
+      <c r="N37" s="124">
+        <v>0</v>
+      </c>
+      <c r="O37" s="119"/>
       <c r="P37" s="73"/>
       <c r="Q37" s="73"/>
       <c r="R37" s="73"/>
@@ -39464,7 +39464,7 @@
       <c r="V37" s="86"/>
     </row>
     <row r="38" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B38" s="117"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="78" t="s">
         <v>135</v>
       </c>
@@ -39490,8 +39490,8 @@
       </c>
       <c r="L38" s="88"/>
       <c r="M38" s="97"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="117"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="119"/>
       <c r="P38" s="73"/>
       <c r="Q38" s="73"/>
       <c r="R38" s="73"/>
@@ -39501,7 +39501,7 @@
       <c r="V38" s="88"/>
     </row>
     <row r="39" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B39" s="117">
+      <c r="B39" s="119">
         <v>18</v>
       </c>
       <c r="C39" s="83" t="s">
@@ -39533,10 +39533,10 @@
       <c r="M39" s="95">
         <v>5800000000</v>
       </c>
-      <c r="N39" s="119">
-        <v>0</v>
-      </c>
-      <c r="O39" s="117"/>
+      <c r="N39" s="124">
+        <v>0</v>
+      </c>
+      <c r="O39" s="119"/>
       <c r="P39" s="73"/>
       <c r="Q39" s="73"/>
       <c r="R39" s="73"/>
@@ -39546,7 +39546,7 @@
       <c r="V39" s="86"/>
     </row>
     <row r="40" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B40" s="117"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="84" t="s">
         <v>142</v>
       </c>
@@ -39570,8 +39570,8 @@
       <c r="K40" s="94"/>
       <c r="L40" s="88"/>
       <c r="M40" s="97"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="117"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="119"/>
       <c r="P40" s="73"/>
       <c r="Q40" s="73"/>
       <c r="R40" s="73"/>
@@ -39581,7 +39581,7 @@
       <c r="V40" s="88"/>
     </row>
     <row r="41" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B41" s="117">
+      <c r="B41" s="119">
         <v>19</v>
       </c>
       <c r="C41" s="81" t="s">
@@ -39611,10 +39611,10 @@
       <c r="M41" s="95">
         <v>0</v>
       </c>
-      <c r="N41" s="119" t="s">
+      <c r="N41" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O41" s="117"/>
+      <c r="O41" s="119"/>
       <c r="P41" s="73"/>
       <c r="Q41" s="73"/>
       <c r="R41" s="73"/>
@@ -39624,7 +39624,7 @@
       <c r="V41" s="86"/>
     </row>
     <row r="42" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B42" s="117"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="82" t="s">
         <v>141</v>
       </c>
@@ -39648,8 +39648,8 @@
       <c r="K42" s="94"/>
       <c r="L42" s="88"/>
       <c r="M42" s="97"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="117"/>
+      <c r="N42" s="124"/>
+      <c r="O42" s="119"/>
       <c r="P42" s="73"/>
       <c r="Q42" s="73"/>
       <c r="R42" s="73"/>
@@ -39659,7 +39659,7 @@
       <c r="V42" s="88"/>
     </row>
     <row r="43" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B43" s="117">
+      <c r="B43" s="119">
         <v>20</v>
       </c>
       <c r="C43" s="83" t="s">
@@ -39689,10 +39689,10 @@
       <c r="M43" s="95">
         <v>0</v>
       </c>
-      <c r="N43" s="119" t="s">
+      <c r="N43" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O43" s="117"/>
+      <c r="O43" s="119"/>
       <c r="P43" s="73"/>
       <c r="Q43" s="73"/>
       <c r="R43" s="73"/>
@@ -39702,7 +39702,7 @@
       <c r="V43" s="86"/>
     </row>
     <row r="44" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B44" s="117"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="84" t="s">
         <v>146</v>
       </c>
@@ -39726,8 +39726,8 @@
       <c r="K44" s="94"/>
       <c r="L44" s="88"/>
       <c r="M44" s="97"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="117"/>
+      <c r="N44" s="124"/>
+      <c r="O44" s="119"/>
       <c r="P44" s="73"/>
       <c r="Q44" s="73"/>
       <c r="R44" s="73"/>
@@ -39737,7 +39737,7 @@
       <c r="V44" s="88"/>
     </row>
     <row r="45" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B45" s="117">
+      <c r="B45" s="119">
         <v>21</v>
       </c>
       <c r="C45" s="81" t="s">
@@ -39767,10 +39767,10 @@
       <c r="M45" s="102">
         <v>0</v>
       </c>
-      <c r="N45" s="119" t="s">
+      <c r="N45" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O45" s="117"/>
+      <c r="O45" s="119"/>
       <c r="P45" s="73"/>
       <c r="Q45" s="73"/>
       <c r="R45" s="73"/>
@@ -39780,7 +39780,7 @@
       <c r="V45" s="86"/>
     </row>
     <row r="46" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B46" s="117"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="77" t="s">
         <v>230</v>
       </c>
@@ -39804,8 +39804,8 @@
       <c r="K46" s="98"/>
       <c r="L46" s="88"/>
       <c r="M46" s="99"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="117"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="119"/>
       <c r="P46" s="73"/>
       <c r="Q46" s="73"/>
       <c r="R46" s="73"/>
@@ -39815,7 +39815,7 @@
       <c r="V46" s="88"/>
     </row>
     <row r="47" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B47" s="117">
+      <c r="B47" s="119">
         <v>22</v>
       </c>
       <c r="C47" s="75" t="s">
@@ -39845,10 +39845,10 @@
       <c r="M47" s="102">
         <v>0</v>
       </c>
-      <c r="N47" s="119" t="s">
+      <c r="N47" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O47" s="117"/>
+      <c r="O47" s="119"/>
       <c r="P47" s="73"/>
       <c r="Q47" s="73"/>
       <c r="R47" s="73"/>
@@ -39858,7 +39858,7 @@
       <c r="V47" s="86"/>
     </row>
     <row r="48" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B48" s="117"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="79" t="s">
         <v>231</v>
       </c>
@@ -39882,8 +39882,8 @@
       <c r="K48" s="98"/>
       <c r="L48" s="88"/>
       <c r="M48" s="99"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="117"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="119"/>
       <c r="P48" s="73"/>
       <c r="Q48" s="73"/>
       <c r="R48" s="73"/>
@@ -39893,7 +39893,7 @@
       <c r="V48" s="88"/>
     </row>
     <row r="49" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B49" s="117">
+      <c r="B49" s="119">
         <v>23</v>
       </c>
       <c r="C49" s="80" t="s">
@@ -39923,10 +39923,10 @@
       <c r="M49" s="102">
         <v>0</v>
       </c>
-      <c r="N49" s="119" t="s">
+      <c r="N49" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="O49" s="117"/>
+      <c r="O49" s="119"/>
       <c r="P49" s="73"/>
       <c r="Q49" s="73"/>
       <c r="R49" s="73"/>
@@ -39936,7 +39936,7 @@
       <c r="V49" s="86"/>
     </row>
     <row r="50" spans="2:22" ht="13.5" thickBot="1">
-      <c r="B50" s="117"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="78" t="s">
         <v>232</v>
       </c>
@@ -39960,8 +39960,8 @@
       <c r="K50" s="98"/>
       <c r="L50" s="88"/>
       <c r="M50" s="99"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="117"/>
+      <c r="N50" s="124"/>
+      <c r="O50" s="119"/>
       <c r="P50" s="73"/>
       <c r="Q50" s="73"/>
       <c r="R50" s="73"/>
@@ -39971,10 +39971,10 @@
       <c r="V50" s="88"/>
     </row>
     <row r="51" spans="2:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="117" t="s">
         <v>260</v>
       </c>
-      <c r="C51" s="118"/>
+      <c r="C51" s="117"/>
       <c r="D51" s="103" t="s">
         <v>257</v>
       </c>
@@ -40039,6 +40039,91 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="B41:B42"/>
@@ -40063,91 +40148,6 @@
     <mergeCell ref="E2:H3"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:I50">
     <cfRule type="colorScale" priority="5">
@@ -40217,8 +40217,8 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -41464,6 +41464,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41474,8 +41475,8 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F56"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -42678,7 +42679,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
